--- a/reports/translation_report.xlsx
+++ b/reports/translation_report.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Translated" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Not_Translated" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +464,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +474,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +494,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>76.47</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +531,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Funnel Reports</t>
+          <t>ダッシュボード</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -542,7 +543,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Feature Management</t>
+          <t>多変量の</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -554,7 +555,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data360</t>
+          <t>スプリットURL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,7 +567,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Introduction</t>
+          <t>ダッシュボード</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -578,7 +579,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Profiles</t>
+          <t>ゴール</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -590,7 +591,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Catalog</t>
+          <t>メトリックレポート</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -602,7 +603,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Recommendations</t>
+          <t>ヒートマップ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -614,7 +615,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Blocks</t>
+          <t>セッションの録音</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -626,7 +627,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Video Library</t>
+          <t>モバイル録音</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -638,14 +639,1101 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>フォーム</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>フォーム</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Webアンケート</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Webアンケート</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>機能フラグ</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>機能フラグ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>フラグの展開</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>フラグの展開</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>フラグテスト</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>フラグテスト</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>フラグ多変量</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>フラグ多変量</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>フラグをカスタマイズ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>フラグをカスタマイズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>技術的負債</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>技術的負債</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>パーソナライズ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>パーソナライズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ウェブロールアウト</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ウェブロールアウト</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Introduction</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>はじめに</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Profiles</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>プロフィール</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>セグメント</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>セグメント</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>トリガー</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>トリガー</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>メトリクス</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>メトリクス</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ファネル</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ファネル</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>モデル</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>モデル</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>観測結果</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>観測結果</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>事例集</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>事例集</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Video Library</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ビデオライブラリ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>アップグレード</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>アップグレード</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ウェブサイトとアプリ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ウェブサイトとアプリ</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ページ</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ページ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>アップデート</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>アップデート</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ヘルプが必要ですか?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ヘルプが必要ですか?</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Settings</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>アカウントID</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Account ID</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>アカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Accounts</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>訪問者の割り当て</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>利用状況</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Visitor Allocation</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ユーザー</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>セキュリティ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Users</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>プライバシーセンター</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>サブスクリプションをキャンセル</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Privacy Center</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>アプリ</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Cancel Subscription</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>アクティビティタイムライン</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Apps</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Insights設定</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Activity Timeline</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>通知設定</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Insights Settings</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>属性リスト</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Notification Preferences</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>キャンペーン</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Attributes List</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>サブスクリプションと請求書</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Campaigns</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>私の購読</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Subscription  Invoices</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>非アクティブ</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>My Subscription</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>請求書履歴</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>訪問者の割り当て</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Invoice History</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>請求プロファイル</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Visitor Allocation</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>プロフィール詳細</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Billing Profile</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ワークスペース</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Profile details</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>プロフィール詳細</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Workspaces</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>メール</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Profile Details</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>メールアドレスの変更</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>電話番号</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>日本語</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>プロフィール画像</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Change Email Address</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>画像をアップロード</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>サポートされているファイルタイプ</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>推奨サイズ:</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ファイルサイズの制限:</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>セキュリティ</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2段階認証 (2FA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>日本語</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>もっと詳しく知ります</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Profile Picture</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2FAを有効にする</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Upload image</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>パスワードを変更する</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>File types supported</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>現在のパスワード</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>png, jpeg</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>新しいパスワード</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>. Recommended size:</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>パスワードの確認</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>512 x 512 px.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>サポートを頼む</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>稼働時間情報</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Learn more</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>日本語</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Funnel Reports</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Funnel Reports</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Feature Management</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Feature Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Data360</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Data360</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Catalog</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catalog</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Recommendations</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Recommendations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Blocks</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Blocks</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pngjpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512 x 512 px.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2 MB.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>File size limit:</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>フォーム</t>
-        </is>
-      </c>
+          <t>Developer resources</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2 MB.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Show logged in users</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Two-Factor Authentication (2FA)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Disabled for you</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Enable 2FA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Change Password</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Current Password</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>New Password</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Confirm Password</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>サポートを頼む</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Developer resources</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Show logged in users</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>稼働時間情報</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>日本語</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/translation_report.xlsx
+++ b/reports/translation_report.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.47</v>
+        <v>75.79000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,900 +567,204 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ダッシュボード</t>
+          <t>ゴール</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ダッシュボード</t>
+          <t>ゴール</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ゴール</t>
+          <t>メトリックレポート</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ゴール</t>
+          <t>メトリックレポート</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>メトリックレポート</t>
+          <t>ヒートマップ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>メトリックレポート</t>
+          <t>ヒートマップ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ヒートマップ</t>
+          <t>セッションの録音</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ヒートマップ</t>
+          <t>セッションの録音</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>セッションの録音</t>
+          <t>モバイル録音</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>セッションの録音</t>
+          <t>モバイル録音</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>モバイル録音</t>
+          <t>フォーム</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>モバイル録音</t>
+          <t>フォーム</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>フォーム</t>
+          <t>Webアンケート</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>フォーム</t>
+          <t>Webアンケート</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Webアンケート</t>
+          <t>機能フラグ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Webアンケート</t>
+          <t>機能フラグ</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>機能フラグ</t>
+          <t>フラグの展開</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>機能フラグ</t>
+          <t>フラグの展開</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>フラグの展開</t>
+          <t>フラグテスト</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>フラグの展開</t>
+          <t>フラグテスト</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>フラグテスト</t>
+          <t>フラグ多変量</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>フラグテスト</t>
+          <t>フラグ多変量</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>フラグ多変量</t>
+          <t>フラグをカスタマイズ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>フラグ多変量</t>
+          <t>フラグをカスタマイズ</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>フラグをカスタマイズ</t>
+          <t>技術的負債</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>フラグをカスタマイズ</t>
+          <t>技術的負債</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>技術的負債</t>
+          <t>パーソナライズ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>技術的負債</t>
+          <t>パーソナライズ</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>パーソナライズ</t>
+          <t>ウェブロールアウト</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>パーソナライズ</t>
+          <t>ウェブロールアウト</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ウェブロールアウト</t>
+          <t>Introduction</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ウェブロールアウト</t>
+          <t>はじめに</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Introduction</t>
+          <t>Profiles</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>はじめに</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Profiles</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>プロフィール</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>イベント</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>イベント</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>セグメント</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>セグメント</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>トリガー</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>トリガー</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>メトリクス</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>メトリクス</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ファネル</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ファネル</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>モデル</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>モデル</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>観測結果</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>観測結果</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>事例集</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>事例集</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Video Library</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ビデオライブラリ</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>アップグレード</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>アップグレード</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ウェブサイトとアプリ</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ウェブサイトとアプリ</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>ページ</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ページ</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>アップデート</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>アップデート</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>ヘルプが必要ですか?</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ヘルプが必要ですか?</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Settings</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>アカウントID</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Account ID</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>アカウント</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Accounts</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>訪問者の割り当て</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>利用状況</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Visitor Allocation</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ユーザー</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Usage</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>セキュリティ</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Users</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>プライバシーセンター</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>サブスクリプションをキャンセル</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Privacy Center</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>アプリ</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Cancel Subscription</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>アクティビティタイムライン</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Apps</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Insights設定</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Activity Timeline</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>通知設定</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Insights Settings</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>属性リスト</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Notification Preferences</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>キャンペーン</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Attributes List</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>サブスクリプションと請求書</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Campaigns</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>私の購読</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Subscription  Invoices</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>非アクティブ</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>My Subscription</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>請求書履歴</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Inactive</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>訪問者の割り当て</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Invoice History</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>請求プロファイル</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Visitor Allocation</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>プロフィール詳細</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Billing Profile</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ワークスペース</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Profile details</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>プロフィール詳細</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Workspaces</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>メール</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Profile Details</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>メールアドレスの変更</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>電話番号</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>日本語</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>プロフィール画像</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Change Email Address</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>画像をアップロード</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>サポートされているファイルタイプ</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>推奨サイズ:</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Department</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ファイルサイズの制限:</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>セキュリティ</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2段階認証 (2FA)</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>日本語</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>もっと詳しく知ります</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Profile Picture</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2FAを有効にする</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Upload image</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>パスワードを変更する</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>File types supported</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>現在のパスワード</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>png, jpeg</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>新しいパスワード</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>. Recommended size:</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>パスワードの確認</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>512 x 512 px.</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>サポートを頼む</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>稼働時間情報</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Learn more</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>日本語</t>
         </is>
       </c>
     </row>
@@ -1475,7 +779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1510,103 +814,103 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Feature Management</t>
+          <t>Catalog</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Feature Management</t>
+          <t>Catalog</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data360</t>
+          <t>Blocks</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Data360</t>
+          <t>Blocks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Catalog</t>
+          <t>Apps</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Catalog</t>
+          <t>Insights設定</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Recommendations</t>
+          <t>Department</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Recommendations</t>
+          <t>pngjpeg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Blocks</t>
+          <t>Role Role</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Blocks</t>
+          <t>512 x 512 px.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Role</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pngjpeg</t>
+          <t>2 MB.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Department</t>
+          <t>png, jpeg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512 x 512 px.</t>
+          <t>サポートを頼む Developer resources 1-415-909-4660 Show logged in users 稼働時間情報 English 日本語</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>512 x 512 px.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2 MB.</t>
+          <t>サポートを頼む Developer resources 1-415-909-4660</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>File size limit:</t>
+          <t>2 MB.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1618,39 +922,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2 MB.</t>
+          <t>Two-Factor Authentication (2FA)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Show logged in users</t>
+          <t>Show logged in users 稼働時間情報</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Two-Factor Authentication (2FA)</t>
+          <t>Learn more</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Show logged in users</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Disabled for you</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>Change Password</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English 日本語</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Enable 2FA</t>
+          <t>Current Password</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1658,7 +966,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Change Password</t>
+          <t>New Password</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1666,7 +974,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Current Password</t>
+          <t>Confirm Password</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1674,7 +982,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>New Password</t>
+          <t>サポートを頼む Developer resources 1-415-909-4660 Show logged in users 稼働時間情報 English 日本語</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1682,7 +990,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Confirm Password</t>
+          <t>サポートを頼む Developer resources 1-415-909-4660</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1690,7 +998,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>サポートを頼む</t>
+          <t>Developer resources</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1698,42 +1006,10 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Developer resources</t>
+          <t>Show logged in users 稼働時間情報</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Show logged in users</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>稼働時間情報</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>日本語</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
